--- a/DATA/RAW/bond_data/os_PA7210002_Carlisle.xlsx
+++ b/DATA/RAW/bond_data/os_PA7210002_Carlisle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubystanmyer/Box Sync/Shrinking Cities/data/bond_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19524\Box\Shrinking Cities MP\data\bond_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1FCF9A-08EF-AF4F-A48E-7207215738E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246ACB3-B5A3-4516-9432-B44AE1785F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="460" windowWidth="13540" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="17" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="fiscal" sheetId="16" r:id="rId18"/>
     <sheet name="assets" sheetId="20" r:id="rId19"/>
     <sheet name="revCollect" sheetId="15" r:id="rId20"/>
+    <sheet name="financialIndicators" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="338">
   <si>
     <t>PWSID</t>
   </si>
@@ -887,19 +890,353 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Revenues line</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Expenses line</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; Amortization Expenses</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization are listed as a line item within Operating Expenses</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Debt Principal Payments</t>
+  </si>
+  <si>
+    <t>Enter $0 if there were no debt service payments</t>
+  </si>
+  <si>
+    <t>[4b]</t>
+  </si>
+  <si>
+    <t>Debt Interest Payments</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Current Assets, excluding inventories, restricted cash, prepaids</t>
+  </si>
+  <si>
+    <t>Total Current Assets minus all inventories, prepaid items and any kind of restricted cash or restricted assets that cannot be used to pay for Current Liabilities</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Current Liabilities, excluding deposits &amp; bond anticipation notes</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities minus all refundable deposits and bond anticipation notes</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments (and Cash Equivalents) is listed as a line item within Current Assets</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Total Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Total accumulated depreciation on capital assets being depreciated (buildings, equipment, other improvements) is usually shown in the Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>Total Depreciable Capital Assets</t>
+  </si>
+  <si>
+    <t>Enter the total value of capital assets being depreciated (buildings, equipment, othre improvements) only. Often listed in Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>Capital Spending</t>
+  </si>
+  <si>
+    <t>Enter Current PPE less Prior PPE + Depreciation</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Operating Ratio (including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_[1]_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Operating Ratio (not including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <t>___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">___
+ [2] - [3] </t>
+    </r>
+  </si>
+  <si>
+    <t>Debt Service coverage ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[1] -  [2] + [3] _
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4] + [4b]</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[5]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>Days cash on hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____[7]____
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(([2] - [3])/365)</t>
+    </r>
+  </si>
+  <si>
+    <t>Percent of capital assets depreciated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9]</t>
+    </r>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__
+( [10] - [11])</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Average plant age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Replacement ratio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CapEx_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>*in cases where accumulated depcreciation is not available, calculate as: 35 - (net PPE / annual depreciation expense)</t>
+  </si>
+  <si>
+    <t>**can also look in cash flow statement for capex value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +1287,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -995,11 +1362,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,10 +1420,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,27 +1733,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>84</v>
       </c>
@@ -1366,7 +1764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -1401,7 +1799,7 @@
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
@@ -1428,7 +1826,7 @@
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1440,7 +1838,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
@@ -1451,7 +1849,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>181</v>
       </c>
@@ -1462,7 +1860,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>181</v>
       </c>
@@ -1470,7 +1868,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>249</v>
       </c>
@@ -1478,7 +1876,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>271</v>
       </c>
@@ -1486,7 +1884,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>271</v>
       </c>
@@ -1510,14 +1908,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -1566,7 +1964,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -1589,7 +1987,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -1621,24 +2019,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="7" max="8" width="8.77734375" style="1"/>
     <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +2071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -1690,7 +2088,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -1707,7 +2105,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -1740,16 +2138,16 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="6" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="1"/>
     <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +2188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -1808,7 +2206,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -1823,7 +2221,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -1854,14 +2252,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +2291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -1910,7 +2308,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -1927,7 +2325,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -1957,16 +2355,16 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.77734375" style="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -2024,7 +2422,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -2041,7 +2439,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -2071,15 +2469,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -2119,7 +2517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -2133,7 +2531,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -2160,12 +2558,12 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -2220,7 +2618,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -2234,7 +2632,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -2248,7 +2646,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>180</v>
       </c>
@@ -2275,13 +2673,13 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -2375,7 +2773,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -2416,7 +2814,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -2457,7 +2855,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>180</v>
       </c>
@@ -2498,7 +2896,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>180</v>
       </c>
@@ -2539,7 +2937,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>180</v>
       </c>
@@ -2580,7 +2978,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>180</v>
       </c>
@@ -2621,7 +3019,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>180</v>
       </c>
@@ -2662,7 +3060,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>180</v>
       </c>
@@ -2703,7 +3101,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -2750,7 +3148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>180</v>
       </c>
@@ -2797,7 +3195,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>180</v>
       </c>
@@ -2844,7 +3242,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>180</v>
       </c>
@@ -2891,7 +3289,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>180</v>
       </c>
@@ -2938,7 +3336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>180</v>
       </c>
@@ -2985,7 +3383,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>180</v>
       </c>
@@ -3026,7 +3424,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>180</v>
       </c>
@@ -3067,7 +3465,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>180</v>
       </c>
@@ -3108,7 +3506,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>180</v>
       </c>
@@ -3149,7 +3547,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>180</v>
       </c>
@@ -3190,7 +3588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>180</v>
       </c>
@@ -3231,7 +3629,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>180</v>
       </c>
@@ -3272,7 +3670,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>180</v>
       </c>
@@ -3313,7 +3711,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>180</v>
       </c>
@@ -3354,7 +3752,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>180</v>
       </c>
@@ -3401,7 +3799,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>180</v>
       </c>
@@ -3448,7 +3846,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>180</v>
       </c>
@@ -3495,7 +3893,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>180</v>
       </c>
@@ -3542,7 +3940,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>180</v>
       </c>
@@ -3589,7 +3987,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>180</v>
       </c>
@@ -3636,7 +4034,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>180</v>
       </c>
@@ -3677,7 +4075,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>180</v>
       </c>
@@ -3718,7 +4116,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>180</v>
       </c>
@@ -3759,7 +4157,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>180</v>
       </c>
@@ -3800,7 +4198,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>180</v>
       </c>
@@ -3841,7 +4239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>180</v>
       </c>
@@ -3882,7 +4280,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>180</v>
       </c>
@@ -3923,7 +4321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>180</v>
       </c>
@@ -3964,7 +4362,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>180</v>
       </c>
@@ -4005,7 +4403,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>180</v>
       </c>
@@ -4052,7 +4450,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>180</v>
       </c>
@@ -4099,7 +4497,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>180</v>
       </c>
@@ -4146,7 +4544,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>180</v>
       </c>
@@ -4193,7 +4591,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>180</v>
       </c>
@@ -4240,7 +4638,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>180</v>
       </c>
@@ -4287,7 +4685,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>180</v>
       </c>
@@ -4328,7 +4726,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>180</v>
       </c>
@@ -4369,7 +4767,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>180</v>
       </c>
@@ -4410,7 +4808,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>180</v>
       </c>
@@ -4451,7 +4849,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>180</v>
       </c>
@@ -4492,7 +4890,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>180</v>
       </c>
@@ -4533,7 +4931,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>180</v>
       </c>
@@ -4574,7 +4972,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>180</v>
       </c>
@@ -4615,7 +5013,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>180</v>
       </c>
@@ -4656,7 +5054,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>180</v>
       </c>
@@ -4703,7 +5101,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>180</v>
       </c>
@@ -4750,7 +5148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>180</v>
       </c>
@@ -4797,7 +5195,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>180</v>
       </c>
@@ -4844,7 +5242,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>180</v>
       </c>
@@ -4891,7 +5289,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>180</v>
       </c>
@@ -4938,7 +5336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>180</v>
       </c>
@@ -4976,7 +5374,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>180</v>
       </c>
@@ -5014,7 +5412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
         <v>180</v>
       </c>
@@ -5052,7 +5450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="24" t="s">
         <v>180</v>
       </c>
@@ -5090,7 +5488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>180</v>
       </c>
@@ -5128,7 +5526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>180</v>
       </c>
@@ -5166,7 +5564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>180</v>
       </c>
@@ -5204,7 +5602,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>180</v>
       </c>
@@ -5242,7 +5640,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>180</v>
       </c>
@@ -5280,7 +5678,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>180</v>
       </c>
@@ -5327,7 +5725,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>180</v>
       </c>
@@ -5374,7 +5772,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>180</v>
       </c>
@@ -5421,7 +5819,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>180</v>
       </c>
@@ -5468,7 +5866,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
         <v>180</v>
       </c>
@@ -5515,7 +5913,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
         <v>180</v>
       </c>
@@ -5562,7 +5960,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>180</v>
       </c>
@@ -5600,7 +5998,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>180</v>
       </c>
@@ -5638,7 +6036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>180</v>
       </c>
@@ -5676,7 +6074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>180</v>
       </c>
@@ -5714,7 +6112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
         <v>180</v>
       </c>
@@ -5752,7 +6150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>180</v>
       </c>
@@ -5790,7 +6188,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>180</v>
       </c>
@@ -5828,7 +6226,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>180</v>
       </c>
@@ -5866,7 +6264,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>180</v>
       </c>
@@ -5904,7 +6302,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
         <v>180</v>
       </c>
@@ -5951,7 +6349,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="24" t="s">
         <v>180</v>
       </c>
@@ -5998,7 +6396,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
         <v>180</v>
       </c>
@@ -6045,7 +6443,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
         <v>180</v>
       </c>
@@ -6092,7 +6490,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
         <v>180</v>
       </c>
@@ -6139,7 +6537,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
         <v>180</v>
       </c>
@@ -6186,7 +6584,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>180</v>
       </c>
@@ -6226,7 +6624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
         <v>180</v>
       </c>
@@ -6266,7 +6664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
         <v>180</v>
       </c>
@@ -6306,7 +6704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
         <v>180</v>
       </c>
@@ -6346,7 +6744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
         <v>180</v>
       </c>
@@ -6386,7 +6784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>180</v>
       </c>
@@ -6426,7 +6824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>180</v>
       </c>
@@ -6466,7 +6864,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>180</v>
       </c>
@@ -6506,7 +6904,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>180</v>
       </c>
@@ -6546,7 +6944,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
         <v>180</v>
       </c>
@@ -6593,7 +6991,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>180</v>
       </c>
@@ -6640,7 +7038,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>180</v>
       </c>
@@ -6687,7 +7085,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>180</v>
       </c>
@@ -6734,7 +7132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>180</v>
       </c>
@@ -6781,7 +7179,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>180</v>
       </c>
@@ -6828,7 +7226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>180</v>
       </c>
@@ -6868,7 +7266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>180</v>
       </c>
@@ -6908,7 +7306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>180</v>
       </c>
@@ -6948,7 +7346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>180</v>
       </c>
@@ -6988,7 +7386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>180</v>
       </c>
@@ -7028,7 +7426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>180</v>
       </c>
@@ -7068,7 +7466,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>180</v>
       </c>
@@ -7108,7 +7506,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>180</v>
       </c>
@@ -7148,7 +7546,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>180</v>
       </c>
@@ -7188,7 +7586,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>180</v>
       </c>
@@ -7235,7 +7633,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>180</v>
       </c>
@@ -7282,7 +7680,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>180</v>
       </c>
@@ -7329,7 +7727,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="24" t="s">
         <v>180</v>
       </c>
@@ -7376,7 +7774,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
         <v>180</v>
       </c>
@@ -7423,7 +7821,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="24" t="s">
         <v>180</v>
       </c>
@@ -7479,23 +7877,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="12" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>33</v>
@@ -7533,7 +7931,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7640,7 +8038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -7697,7 +8095,7 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
@@ -7738,7 +8136,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -7779,7 +8177,7 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
@@ -7815,7 +8213,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
@@ -7851,7 +8249,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
@@ -7887,7 +8285,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>68</v>
       </c>
@@ -7923,7 +8321,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
@@ -7959,7 +8357,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
@@ -7995,7 +8393,7 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
@@ -8031,7 +8429,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
@@ -8067,7 +8465,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
@@ -8201,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
@@ -8255,7 +8653,7 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
@@ -8306,7 +8704,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
@@ -8358,7 +8756,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
@@ -8409,7 +8807,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
@@ -8451,7 +8849,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
@@ -8506,7 +8904,7 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
@@ -8557,7 +8955,7 @@
       <c r="AH21" s="13"/>
       <c r="AI21" s="13"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
@@ -8608,7 +9006,7 @@
       <c r="AH22" s="13"/>
       <c r="AI22" s="13"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
@@ -8657,7 +9055,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
@@ -8698,7 +9096,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
@@ -8740,7 +9138,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
@@ -8781,7 +9179,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -8913,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
@@ -9047,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
@@ -9093,7 +9491,7 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
@@ -9139,7 +9537,7 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
@@ -9183,7 +9581,7 @@
       <c r="AH31" s="13"/>
       <c r="AI31" s="13"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
@@ -9225,7 +9623,7 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>72</v>
       </c>
@@ -9261,7 +9659,7 @@
       <c r="AH33" s="13"/>
       <c r="AI33" s="13"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
@@ -9272,7 +9670,7 @@
       </c>
       <c r="E34" s="15"/>
       <c r="J34" s="15">
-        <f t="shared" ref="I34:AG34" si="4">SUM(J28:J33)</f>
+        <f t="shared" ref="J34:AG34" si="4">SUM(J28:J33)</f>
         <v>0</v>
       </c>
       <c r="K34" s="15">
@@ -9376,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
@@ -9432,7 +9830,7 @@
       <c r="AH35" s="15"/>
       <c r="AI35" s="15"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
@@ -9487,7 +9885,7 @@
       <c r="AH36" s="15"/>
       <c r="AI36" s="15"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
@@ -9541,7 +9939,7 @@
       <c r="AH37" s="15"/>
       <c r="AI37" s="15"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
@@ -9592,7 +9990,7 @@
       <c r="AH38" s="15"/>
       <c r="AI38" s="15"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
@@ -9633,7 +10031,7 @@
       <c r="AH39" s="15"/>
       <c r="AI39" s="15"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E43" s="28"/>
     </row>
   </sheetData>
@@ -9649,14 +10047,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>33</v>
@@ -9694,7 +10092,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9801,7 +10199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>159</v>
       </c>
@@ -9837,7 +10235,7 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>159</v>
       </c>
@@ -9873,7 +10271,7 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>159</v>
       </c>
@@ -9909,7 +10307,7 @@
       <c r="AH5" s="13"/>
       <c r="AI5" s="13"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
@@ -9945,7 +10343,7 @@
       <c r="AH6" s="13"/>
       <c r="AI6" s="13"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>159</v>
       </c>
@@ -9981,7 +10379,7 @@
       <c r="AH7" s="13"/>
       <c r="AI7" s="13"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>159</v>
       </c>
@@ -10017,7 +10415,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>159</v>
       </c>
@@ -10053,7 +10451,7 @@
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>159</v>
       </c>
@@ -10089,7 +10487,7 @@
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>159</v>
       </c>
@@ -10125,7 +10523,7 @@
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
         <v>159</v>
       </c>
@@ -10161,7 +10559,7 @@
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>160</v>
       </c>
@@ -10197,7 +10595,7 @@
       <c r="AH13" s="13"/>
       <c r="AI13" s="13"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
@@ -10236,7 +10634,7 @@
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>160</v>
       </c>
@@ -10272,7 +10670,7 @@
       <c r="AH15" s="13"/>
       <c r="AI15" s="13"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>160</v>
       </c>
@@ -10308,7 +10706,7 @@
       <c r="AH16" s="13"/>
       <c r="AI16" s="13"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>160</v>
       </c>
@@ -10344,7 +10742,7 @@
       <c r="AH17" s="13"/>
       <c r="AI17" s="13"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>160</v>
       </c>
@@ -10380,7 +10778,7 @@
       <c r="AH18" s="13"/>
       <c r="AI18" s="13"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>161</v>
       </c>
@@ -10416,7 +10814,7 @@
       <c r="AH19" s="13"/>
       <c r="AI19" s="13"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>161</v>
       </c>
@@ -10452,7 +10850,7 @@
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
@@ -10491,7 +10889,7 @@
       <c r="AH21" s="15"/>
       <c r="AI21" s="15"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
@@ -10530,7 +10928,7 @@
       <c r="AH22" s="16"/>
       <c r="AI22" s="16"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>161</v>
       </c>
@@ -10566,7 +10964,7 @@
       <c r="AH23" s="13"/>
       <c r="AI23" s="13"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="s">
         <v>162</v>
       </c>
@@ -10602,7 +11000,7 @@
       <c r="AH24" s="13"/>
       <c r="AI24" s="13"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C25" s="19" t="s">
         <v>162</v>
       </c>
@@ -10638,7 +11036,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C26" s="19" t="s">
         <v>162</v>
       </c>
@@ -10674,7 +11072,7 @@
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="s">
         <v>162</v>
       </c>
@@ -10710,7 +11108,7 @@
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19" t="s">
@@ -10749,7 +11147,7 @@
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
@@ -10788,7 +11186,7 @@
       <c r="AH29" s="15"/>
       <c r="AI29" s="15"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
@@ -10827,7 +11225,7 @@
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
@@ -10866,7 +11264,7 @@
       <c r="AH31" s="15"/>
       <c r="AI31" s="15"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
@@ -10905,7 +11303,7 @@
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
@@ -10944,107 +11342,107 @@
       <c r="AH33" s="15"/>
       <c r="AI33" s="15"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C42" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C47" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C48" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="7" t="s">
         <v>168</v>
       </c>
@@ -11062,27 +11460,27 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="12" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" style="1"/>
     <col min="16" max="16" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.83203125" style="1"/>
+    <col min="17" max="18" width="8.77734375" style="1"/>
     <col min="19" max="19" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="1"/>
+    <col min="20" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -11144,7 +11542,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -11197,7 +11595,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -11251,7 +11649,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -11305,7 +11703,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -11352,7 +11750,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -11416,15 +11814,15 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11455,6 +11853,2341 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9217A50B-31C3-43ED-B5B3-1FC00EB9461B}">
+  <dimension ref="A1:AK38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1987</v>
+      </c>
+      <c r="G1" s="30">
+        <v>1988</v>
+      </c>
+      <c r="H1" s="30">
+        <v>1989</v>
+      </c>
+      <c r="I1" s="30">
+        <v>1990</v>
+      </c>
+      <c r="J1" s="30">
+        <v>1991</v>
+      </c>
+      <c r="K1" s="30">
+        <v>1992</v>
+      </c>
+      <c r="L1" s="30">
+        <v>1993</v>
+      </c>
+      <c r="M1" s="30">
+        <v>1994</v>
+      </c>
+      <c r="N1" s="30">
+        <v>1995</v>
+      </c>
+      <c r="O1" s="30">
+        <v>1996</v>
+      </c>
+      <c r="P1" s="30">
+        <v>1997</v>
+      </c>
+      <c r="Q1" s="30">
+        <v>1998</v>
+      </c>
+      <c r="R1" s="30">
+        <v>1999</v>
+      </c>
+      <c r="S1" s="30">
+        <v>2000</v>
+      </c>
+      <c r="T1" s="30">
+        <v>2001</v>
+      </c>
+      <c r="U1" s="30">
+        <v>2002</v>
+      </c>
+      <c r="V1" s="30">
+        <v>2003</v>
+      </c>
+      <c r="W1" s="30">
+        <v>2004</v>
+      </c>
+      <c r="X1" s="30">
+        <v>2005</v>
+      </c>
+      <c r="Y1" s="30">
+        <v>2006</v>
+      </c>
+      <c r="Z1" s="30">
+        <v>2007</v>
+      </c>
+      <c r="AA1" s="30">
+        <v>2008</v>
+      </c>
+      <c r="AB1" s="30">
+        <v>2009</v>
+      </c>
+      <c r="AC1" s="30">
+        <v>2010</v>
+      </c>
+      <c r="AD1" s="30">
+        <v>2011</v>
+      </c>
+      <c r="AE1" s="30">
+        <v>2012</v>
+      </c>
+      <c r="AF1" s="30">
+        <v>2013</v>
+      </c>
+      <c r="AG1" s="30">
+        <v>2014</v>
+      </c>
+      <c r="AH1" s="30">
+        <v>2015</v>
+      </c>
+      <c r="AI1" s="30">
+        <v>2016</v>
+      </c>
+      <c r="AJ1" s="30">
+        <v>2017</v>
+      </c>
+      <c r="AK1" s="30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2">
+        <f>fiscal!E14</f>
+        <v>1322402</v>
+      </c>
+      <c r="H2">
+        <f>fiscal!F14</f>
+        <v>1310186</v>
+      </c>
+      <c r="I2">
+        <f>fiscal!G14</f>
+        <v>1341106</v>
+      </c>
+      <c r="J2">
+        <f>fiscal!H14</f>
+        <v>1727900</v>
+      </c>
+      <c r="K2">
+        <f>fiscal!I14</f>
+        <v>2072009</v>
+      </c>
+      <c r="L2">
+        <f>fiscal!J14</f>
+        <v>2664045</v>
+      </c>
+      <c r="M2">
+        <f>fiscal!K14</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>fiscal!L14</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>fiscal!M14</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>fiscal!N14</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>fiscal!O14</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>fiscal!P14</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>fiscal!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>fiscal!R14</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>fiscal!S14</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>fiscal!T14</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>fiscal!U14</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>fiscal!V14</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>fiscal!W14</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>fiscal!X14</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>fiscal!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>fiscal!Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>fiscal!AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>fiscal!AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>fiscal!AC14</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>fiscal!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>fiscal!AE14</f>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f>fiscal!AF14</f>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>fiscal!AG14</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f>fiscal!AH14</f>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f>fiscal!AI14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3">
+        <f>fiscal!E27</f>
+        <v>1120469</v>
+      </c>
+      <c r="H3">
+        <f>fiscal!F27</f>
+        <v>1179443</v>
+      </c>
+      <c r="I3">
+        <f>fiscal!G27</f>
+        <v>1670695</v>
+      </c>
+      <c r="J3">
+        <f>fiscal!H27</f>
+        <v>1663940</v>
+      </c>
+      <c r="K3">
+        <f>fiscal!I27</f>
+        <v>1846493</v>
+      </c>
+      <c r="L3">
+        <f>fiscal!J27</f>
+        <v>2664045</v>
+      </c>
+      <c r="M3">
+        <f>fiscal!K27</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>fiscal!L27</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>fiscal!M27</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>fiscal!N27</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>fiscal!O27</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>fiscal!P27</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>fiscal!Q27</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>fiscal!R27</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>fiscal!S27</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>fiscal!T27</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>fiscal!U27</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>fiscal!V27</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>fiscal!W27</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>fiscal!X27</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>fiscal!Y27</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>fiscal!Z27</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>fiscal!AA27</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>fiscal!AB27</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>fiscal!AC27</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>fiscal!AD27</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>fiscal!AE27</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>fiscal!AF27</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <f>fiscal!AG27</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <f>fiscal!AH27</f>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <f>fiscal!AI27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33">
+        <f>fiscal!E23</f>
+        <v>73628</v>
+      </c>
+      <c r="H4" s="33">
+        <f>fiscal!F23</f>
+        <v>76684</v>
+      </c>
+      <c r="I4" s="33">
+        <f>fiscal!G23</f>
+        <v>222503</v>
+      </c>
+      <c r="J4" s="33">
+        <f>fiscal!H23</f>
+        <v>221058</v>
+      </c>
+      <c r="K4" s="33">
+        <f>fiscal!I23</f>
+        <v>251322</v>
+      </c>
+      <c r="L4" s="33">
+        <f>fiscal!J23</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="33">
+        <f>fiscal!K23</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="33">
+        <f>fiscal!L23</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="33">
+        <f>fiscal!M23</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="33">
+        <f>fiscal!N23</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="33">
+        <f>fiscal!O23</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="33">
+        <f>fiscal!P23</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="33">
+        <f>fiscal!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="33">
+        <f>fiscal!R23</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="33">
+        <f>fiscal!S23</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="33">
+        <f>fiscal!T23</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="33">
+        <f>fiscal!U23</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="33">
+        <f>fiscal!V23</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="33">
+        <f>fiscal!W23</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="33">
+        <f>fiscal!X23</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="33">
+        <f>fiscal!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="33">
+        <f>fiscal!Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="33">
+        <f>fiscal!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="33">
+        <f>fiscal!AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="33">
+        <f>fiscal!AC23</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="33">
+        <f>fiscal!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="33">
+        <f>fiscal!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="33">
+        <f>fiscal!AF23</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="33">
+        <f>fiscal!AG23</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="33">
+        <f>fiscal!AH23</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="33">
+        <f>fiscal!AI23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39" t="str">
+        <f>IFERROR(E2/E3, "")</f>
+        <v/>
+      </c>
+      <c r="F17" s="39" t="str">
+        <f>IFERROR(F2/F3, "")</f>
+        <v/>
+      </c>
+      <c r="G17" s="39">
+        <f>IFERROR(G2/G3, "")</f>
+        <v>1.1802218535274067</v>
+      </c>
+      <c r="H17" s="39">
+        <f>IFERROR(H2/H3, "")</f>
+        <v>1.1108514781977594</v>
+      </c>
+      <c r="I17" s="39">
+        <f>IFERROR(I2/I3, "")</f>
+        <v>0.80272341749990272</v>
+      </c>
+      <c r="J17" s="39">
+        <f>IFERROR(J2/J3, "")</f>
+        <v>1.0384388860175247</v>
+      </c>
+      <c r="K17" s="39">
+        <f>IFERROR(K2/K3, "")</f>
+        <v>1.1221320633222005</v>
+      </c>
+      <c r="L17" s="39">
+        <f>IFERROR(L2/L3, "")</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="39" t="str">
+        <f>IFERROR(M2/M3, "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="39" t="str">
+        <f>IFERROR(N2/N3, "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="39" t="str">
+        <f>IFERROR(O2/O3, "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="39" t="str">
+        <f>IFERROR(P2/P3, "")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="39" t="str">
+        <f>IFERROR(Q2/Q3, "")</f>
+        <v/>
+      </c>
+      <c r="R17" s="39" t="str">
+        <f>IFERROR(R2/R3, "")</f>
+        <v/>
+      </c>
+      <c r="S17" s="39" t="str">
+        <f>IFERROR(S2/S3, "")</f>
+        <v/>
+      </c>
+      <c r="T17" s="39" t="str">
+        <f>IFERROR(T2/T3, "")</f>
+        <v/>
+      </c>
+      <c r="U17" s="39" t="str">
+        <f>IFERROR(U2/U3, "")</f>
+        <v/>
+      </c>
+      <c r="V17" s="39" t="str">
+        <f>IFERROR(V2/V3, "")</f>
+        <v/>
+      </c>
+      <c r="W17" s="39" t="str">
+        <f>IFERROR(W2/W3, "")</f>
+        <v/>
+      </c>
+      <c r="X17" s="39" t="str">
+        <f>IFERROR(X2/X3, "")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="39" t="str">
+        <f>IFERROR(Y2/Y3, "")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="39" t="str">
+        <f>IFERROR(Z2/Z3, "")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="39" t="str">
+        <f>IFERROR(AA2/AA3, "")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="39" t="str">
+        <f>IFERROR(AB2/AB3, "")</f>
+        <v/>
+      </c>
+      <c r="AC17" s="39" t="str">
+        <f>IFERROR(AC2/AC3, "")</f>
+        <v/>
+      </c>
+      <c r="AD17" s="39" t="str">
+        <f>IFERROR(AD2/AD3, "")</f>
+        <v/>
+      </c>
+      <c r="AE17" s="39" t="str">
+        <f>IFERROR(AE2/AE3, "")</f>
+        <v/>
+      </c>
+      <c r="AF17" s="39" t="str">
+        <f>IFERROR(AF2/AF3, "")</f>
+        <v/>
+      </c>
+      <c r="AG17" s="39" t="str">
+        <f>IFERROR(AG2/AG3, "")</f>
+        <v/>
+      </c>
+      <c r="AH17" s="39" t="str">
+        <f>IFERROR(AH2/AH3, "")</f>
+        <v/>
+      </c>
+      <c r="AI17" s="39" t="str">
+        <f>IFERROR(AI2/AI3, "")</f>
+        <v/>
+      </c>
+      <c r="AJ17" s="39" t="str">
+        <f>IFERROR(AJ2/AJ3, "")</f>
+        <v/>
+      </c>
+      <c r="AK17" s="39" t="str">
+        <f>IFERROR(AK2/AK3, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39" t="str">
+        <f>IFERROR(IF(E4="","",E2/(E3-E4)), "")</f>
+        <v/>
+      </c>
+      <c r="F18" s="39" t="str">
+        <f>IFERROR(IF(F4="","",F2/(F3-F4)), "")</f>
+        <v/>
+      </c>
+      <c r="G18" s="39">
+        <f>IFERROR(IF(G4="","",G2/(G3-G4)), "")</f>
+        <v>1.2632309968753612</v>
+      </c>
+      <c r="H18" s="39">
+        <f>IFERROR(IF(H4="","",H2/(H3-H4)), "")</f>
+        <v>1.1880982154759108</v>
+      </c>
+      <c r="I18" s="39">
+        <f>IFERROR(IF(I4="","",I2/(I3-I4)), "")</f>
+        <v>0.92605538492133643</v>
+      </c>
+      <c r="J18" s="39">
+        <f>IFERROR(IF(J4="","",J2/(J3-J4)), "")</f>
+        <v>1.1975338246648028</v>
+      </c>
+      <c r="K18" s="39">
+        <f>IFERROR(IF(K4="","",K2/(K3-K4)), "")</f>
+        <v>1.2989259458703801</v>
+      </c>
+      <c r="L18" s="39">
+        <f>IFERROR(IF(L4="","",L2/(L3-L4)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="39" t="str">
+        <f>IFERROR(IF(M4="","",M2/(M3-M4)), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="39" t="str">
+        <f>IFERROR(IF(N4="","",N2/(N3-N4)), "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="39" t="str">
+        <f>IFERROR(IF(O4="","",O2/(O3-O4)), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="39" t="str">
+        <f>IFERROR(IF(P4="","",P2/(P3-P4)), "")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="39" t="str">
+        <f>IFERROR(IF(Q4="","",Q2/(Q3-Q4)), "")</f>
+        <v/>
+      </c>
+      <c r="R18" s="39" t="str">
+        <f>IFERROR(IF(R4="","",R2/(R3-R4)), "")</f>
+        <v/>
+      </c>
+      <c r="S18" s="39" t="str">
+        <f>IFERROR(IF(S4="","",S2/(S3-S4)), "")</f>
+        <v/>
+      </c>
+      <c r="T18" s="39" t="str">
+        <f>IFERROR(IF(T4="","",T2/(T3-T4)), "")</f>
+        <v/>
+      </c>
+      <c r="U18" s="39" t="str">
+        <f>IFERROR(IF(U4="","",U2/(U3-U4)), "")</f>
+        <v/>
+      </c>
+      <c r="V18" s="39" t="str">
+        <f>IFERROR(IF(V4="","",V2/(V3-V4)), "")</f>
+        <v/>
+      </c>
+      <c r="W18" s="39" t="str">
+        <f>IFERROR(IF(W4="","",W2/(W3-W4)), "")</f>
+        <v/>
+      </c>
+      <c r="X18" s="39" t="str">
+        <f>IFERROR(IF(X4="","",X2/(X3-X4)), "")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="39" t="str">
+        <f>IFERROR(IF(Y4="","",Y2/(Y3-Y4)), "")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="39" t="str">
+        <f>IFERROR(IF(Z4="","",Z2/(Z3-Z4)), "")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="39" t="str">
+        <f>IFERROR(IF(AA4="","",AA2/(AA3-AA4)), "")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="39" t="str">
+        <f>IFERROR(IF(AB4="","",AB2/(AB3-AB4)), "")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="39" t="str">
+        <f>IFERROR(IF(AC4="","",AC2/(AC3-AC4)), "")</f>
+        <v/>
+      </c>
+      <c r="AD18" s="39" t="str">
+        <f>IFERROR(IF(AD4="","",AD2/(AD3-AD4)), "")</f>
+        <v/>
+      </c>
+      <c r="AE18" s="39" t="str">
+        <f>IFERROR(IF(AE4="","",AE2/(AE3-AE4)), "")</f>
+        <v/>
+      </c>
+      <c r="AF18" s="39" t="str">
+        <f>IFERROR(IF(AF4="","",AF2/(AF3-AF4)), "")</f>
+        <v/>
+      </c>
+      <c r="AG18" s="39" t="str">
+        <f>IFERROR(IF(AG4="","",AG2/(AG3-AG4)), "")</f>
+        <v/>
+      </c>
+      <c r="AH18" s="39" t="str">
+        <f>IFERROR(IF(AH4="","",AH2/(AH3-AH4)), "")</f>
+        <v/>
+      </c>
+      <c r="AI18" s="39" t="str">
+        <f>IFERROR(IF(AI4="","",AI2/(AI3-AI4)), "")</f>
+        <v/>
+      </c>
+      <c r="AJ18" s="39" t="str">
+        <f>IFERROR(IF(AJ4="","",AJ2/(AJ3-AJ4)), "")</f>
+        <v/>
+      </c>
+      <c r="AK18" s="39" t="str">
+        <f>IFERROR(IF(AK4="","",AK2/(AK3-AK4)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39" t="str">
+        <f>IF(E4="","",IF(E5="","",IF(E6="","",(E2-E3+E4)/(E5+E6))))</f>
+        <v/>
+      </c>
+      <c r="F19" s="39" t="str">
+        <f>IF(F4="","",IF(F5="","",IF(F6="","",(F2-F3+F4)/(F5+F6))))</f>
+        <v/>
+      </c>
+      <c r="G19" s="39" t="str">
+        <f>IF(G4="","",IF(G5="","",IF(G6="","",(G2-G3+G4)/(G5+G6))))</f>
+        <v/>
+      </c>
+      <c r="H19" s="39" t="str">
+        <f>IF(H4="","",IF(H5="","",IF(H6="","",(H2-H3+H4)/(H5+H6))))</f>
+        <v/>
+      </c>
+      <c r="I19" s="39" t="str">
+        <f>IF(I4="","",IF(I5="","",IF(I6="","",(I2-I3+I4)/(I5+I6))))</f>
+        <v/>
+      </c>
+      <c r="J19" s="39" t="str">
+        <f>IF(J4="","",IF(J5="","",IF(J6="","",(J2-J3+J4)/(J5+J6))))</f>
+        <v/>
+      </c>
+      <c r="K19" s="39" t="str">
+        <f>IF(K4="","",IF(K5="","",IF(K6="","",(K2-K3+K4)/(K5+K6))))</f>
+        <v/>
+      </c>
+      <c r="L19" s="39" t="str">
+        <f>IF(L4="","",IF(L5="","",IF(L6="","",(L2-L3+L4)/(L5+L6))))</f>
+        <v/>
+      </c>
+      <c r="M19" s="39" t="str">
+        <f>IF(M4="","",IF(M5="","",IF(M6="","",(M2-M3+M4)/(M5+M6))))</f>
+        <v/>
+      </c>
+      <c r="N19" s="39" t="str">
+        <f>IF(N4="","",IF(N5="","",IF(N6="","",(N2-N3+N4)/(N5+N6))))</f>
+        <v/>
+      </c>
+      <c r="O19" s="39" t="str">
+        <f>IF(O4="","",IF(O5="","",IF(O6="","",(O2-O3+O4)/(O5+O6))))</f>
+        <v/>
+      </c>
+      <c r="P19" s="39" t="str">
+        <f>IF(P4="","",IF(P5="","",IF(P6="","",(P2-P3+P4)/(P5+P6))))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="39" t="str">
+        <f>IF(Q4="","",IF(Q5="","",IF(Q6="","",(Q2-Q3+Q4)/(Q5+Q6))))</f>
+        <v/>
+      </c>
+      <c r="R19" s="39" t="str">
+        <f>IF(R4="","",IF(R5="","",IF(R6="","",(R2-R3+R4)/(R5+R6))))</f>
+        <v/>
+      </c>
+      <c r="S19" s="39" t="str">
+        <f>IF(S4="","",IF(S5="","",IF(S6="","",(S2-S3+S4)/(S5+S6))))</f>
+        <v/>
+      </c>
+      <c r="T19" s="39" t="str">
+        <f>IF(T4="","",IF(T5="","",IF(T6="","",(T2-T3+T4)/(T5+T6))))</f>
+        <v/>
+      </c>
+      <c r="U19" s="39" t="str">
+        <f>IF(U4="","",IF(U5="","",IF(U6="","",(U2-U3+U4)/(U5+U6))))</f>
+        <v/>
+      </c>
+      <c r="V19" s="39" t="str">
+        <f>IF(V4="","",IF(V5="","",IF(V6="","",(V2-V3+V4)/(V5+V6))))</f>
+        <v/>
+      </c>
+      <c r="W19" s="39" t="str">
+        <f>IF(W4="","",IF(W5="","",IF(W6="","",(W2-W3+W4)/(W5+W6))))</f>
+        <v/>
+      </c>
+      <c r="X19" s="39" t="str">
+        <f>IF(X4="","",IF(X5="","",IF(X6="","",(X2-X3+X4)/(X5+X6))))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="39" t="str">
+        <f>IF(Y4="","",IF(Y5="","",IF(Y6="","",(Y2-Y3+Y4)/(Y5+Y6))))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="39" t="str">
+        <f>IF(Z4="","",IF(Z5="","",IF(Z6="","",(Z2-Z3+Z4)/(Z5+Z6))))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="39" t="str">
+        <f>IF(AA4="","",IF(AA5="","",IF(AA6="","",(AA2-AA3+AA4)/(AA5+AA6))))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="39" t="str">
+        <f>IF(AB4="","",IF(AB5="","",IF(AB6="","",(AB2-AB3+AB4)/(AB5+AB6))))</f>
+        <v/>
+      </c>
+      <c r="AC19" s="39" t="str">
+        <f>IF(AC4="","",IF(AC5="","",IF(AC6="","",(AC2-AC3+AC4)/(AC5+AC6))))</f>
+        <v/>
+      </c>
+      <c r="AD19" s="39" t="str">
+        <f>IF(AD4="","",IF(AD5="","",IF(AD6="","",(AD2-AD3+AD4)/(AD5+AD6))))</f>
+        <v/>
+      </c>
+      <c r="AE19" s="39" t="str">
+        <f>IF(AE4="","",IF(AE5="","",IF(AE6="","",(AE2-AE3+AE4)/(AE5+AE6))))</f>
+        <v/>
+      </c>
+      <c r="AF19" s="39" t="str">
+        <f>IF(AF4="","",IF(AF5="","",IF(AF6="","",(AF2-AF3+AF4)/(AF5+AF6))))</f>
+        <v/>
+      </c>
+      <c r="AG19" s="39" t="str">
+        <f>IF(AG4="","",IF(AG5="","",IF(AG6="","",(AG2-AG3+AG4)/(AG5+AG6))))</f>
+        <v/>
+      </c>
+      <c r="AH19" s="39" t="str">
+        <f>IF(AH4="","",IF(AH5="","",IF(AH6="","",(AH2-AH3+AH4)/(AH5+AH6))))</f>
+        <v/>
+      </c>
+      <c r="AI19" s="39" t="str">
+        <f>IF(AI4="","",IF(AI5="","",IF(AI6="","",(AI2-AI3+AI4)/(AI5+AI6))))</f>
+        <v/>
+      </c>
+      <c r="AJ19" s="39" t="str">
+        <f>IF(AJ4="","",IF(AJ5="","",IF(AJ6="","",(AJ2-AJ3+AJ4)/(AJ5+AJ6))))</f>
+        <v/>
+      </c>
+      <c r="AK19" s="39" t="str">
+        <f>IF(AK4="","",IF(AK5="","",IF(AK6="","",(AK2-AK3+AK4)/(AK5+AK6))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="39" t="str">
+        <f>IFERROR(IF(E7=0,"",E7/E8), "")</f>
+        <v/>
+      </c>
+      <c r="F20" s="39" t="str">
+        <f t="shared" ref="F20:AK20" si="0">IFERROR(IF(F7=0,"",F7/F8), "")</f>
+        <v/>
+      </c>
+      <c r="G20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="X20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Z20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AA20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AC20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AD20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AE20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AF20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AG20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AH20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AI20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AJ20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AK20" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="str">
+        <f>IFERROR(IF(E9=0,"",IF(E4="","",IF(E9="","",E9/((E3-E4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="41" t="str">
+        <f t="shared" ref="F21:AK21" si="1">IFERROR(IF(F9=0,"",IF(F4="","",IF(F9="","",F9/((F3-F4)/365)))),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AK21" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="42" t="str">
+        <f>IFERROR(IF(E10="","",E10/E11), "")</f>
+        <v/>
+      </c>
+      <c r="F22" s="42" t="str">
+        <f t="shared" ref="F22:AK22" si="2">IFERROR(IF(F10="","",F10/F11), "")</f>
+        <v/>
+      </c>
+      <c r="G22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AJ22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AK22" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39" t="str">
+        <f>IFERROR(IF(E12=0,"",IF(E13=0,"",E13/(E12-E13))),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="39" t="str">
+        <f t="shared" ref="F23:AK23" si="3">IFERROR(IF(F12=0,"",IF(F13=0,"",F13/(F12-F13))),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AJ23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AK23" s="39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="43" t="str">
+        <f>IFERROR(IF(E10="","",IF(E10=0,"",E10/E4)),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="43" t="str">
+        <f>IFERROR(IF(F10="","",IF(F10=0,"",F10/F4)),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="43" t="str">
+        <f>IFERROR(IF(G10="","",IF(G10=0,"",G10/G4)),"")</f>
+        <v/>
+      </c>
+      <c r="H24" s="43" t="str">
+        <f>IFERROR(IF(H10="","",IF(H10=0,"",H10/H4)),"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="43" t="str">
+        <f>IFERROR(IF(I10="","",IF(I10=0,"",I10/I4)),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="43" t="str">
+        <f>IFERROR(IF(J10="","",IF(J10=0,"",J10/J4)),"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="43" t="str">
+        <f>IFERROR(IF(K10="","",IF(K10=0,"",K10/K4)),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="43" t="str">
+        <f>IFERROR(IF(L10="","",IF(L10=0,"",L10/L4)),"")</f>
+        <v/>
+      </c>
+      <c r="M24" s="43" t="str">
+        <f>IFERROR(IF(M10="","",IF(M10=0,"",M10/M4)),"")</f>
+        <v/>
+      </c>
+      <c r="N24" s="43" t="str">
+        <f>IFERROR(IF(N10="","",IF(N10=0,"",N10/N4)),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="43" t="str">
+        <f>IFERROR(IF(O10="","",IF(O10=0,"",O10/O4)),"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="43" t="str">
+        <f>IFERROR(IF(P10="","",IF(P10=0,"",P10/P4)),"")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="43" t="str">
+        <f>IFERROR(IF(Q10="","",IF(Q10=0,"",Q10/Q4)),"")</f>
+        <v/>
+      </c>
+      <c r="R24" s="43" t="str">
+        <f>IFERROR(IF(R10="","",IF(R10=0,"",R10/R4)),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="43" t="str">
+        <f>IFERROR(IF(S10="","",IF(S10=0,"",S10/S4)),"")</f>
+        <v/>
+      </c>
+      <c r="T24" s="43" t="str">
+        <f>IFERROR(IF(T10="","",IF(T10=0,"",T10/T4)),"")</f>
+        <v/>
+      </c>
+      <c r="U24" s="43" t="str">
+        <f>IFERROR(IF(U10="","",IF(U10=0,"",U10/U4)),"")</f>
+        <v/>
+      </c>
+      <c r="V24" s="43" t="str">
+        <f>IFERROR(IF(V10="","",IF(V10=0,"",V10/V4)),"")</f>
+        <v/>
+      </c>
+      <c r="W24" s="43" t="str">
+        <f>IFERROR(IF(W10="","",IF(W10=0,"",W10/W4)),"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="43" t="str">
+        <f>IFERROR(IF(X10="","",IF(X10=0,"",X10/X4)),"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="43" t="str">
+        <f>IFERROR(IF(Y10="","",IF(Y10=0,"",Y10/Y4)),"")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="43" t="str">
+        <f>IFERROR(IF(Z10="","",IF(Z10=0,"",Z10/Z4)),"")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="43" t="str">
+        <f>IFERROR(IF(AA10="","",IF(AA10=0,"",AA10/AA4)),"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="43" t="str">
+        <f>IFERROR(IF(AB10="","",IF(AB10=0,"",AB10/AB4)),"")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="43" t="str">
+        <f>IFERROR(IF(AC10="","",IF(AC10=0,"",AC10/AC4)),"")</f>
+        <v/>
+      </c>
+      <c r="AD24" s="43" t="str">
+        <f>IFERROR(IF(AD10="","",IF(AD10=0,"",AD10/AD4)),"")</f>
+        <v/>
+      </c>
+      <c r="AE24" s="43" t="str">
+        <f>IFERROR(IF(AE10="","",IF(AE10=0,"",AE10/AE4)),"")</f>
+        <v/>
+      </c>
+      <c r="AF24" s="43" t="str">
+        <f>IFERROR(IF(AF10="","",IF(AF10=0,"",AF10/AF4)),"")</f>
+        <v/>
+      </c>
+      <c r="AG24" s="43" t="str">
+        <f>IFERROR(IF(AG10="","",IF(AG10=0,"",AG10/AG4)),"")</f>
+        <v/>
+      </c>
+      <c r="AH24" s="43" t="str">
+        <f>IFERROR(IF(AH10="","",IF(AH10=0,"",AH10/AH4)),"")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="43" t="str">
+        <f>IFERROR(IF(AI10="","",IF(AI10=0,"",AI10/AI4)),"")</f>
+        <v/>
+      </c>
+      <c r="AJ24" s="43" t="str">
+        <f>IFERROR(IF(AJ10="","",IF(AJ10=0,"",AJ10/AJ4)),"")</f>
+        <v/>
+      </c>
+      <c r="AK24" s="43" t="str">
+        <f>IFERROR(IF(AK10="","",IF(AK10=0,"",AK10/AK4)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="35" t="str">
+        <f>IFERROR(IF(E14=0,"",IF(E14&lt;0,"",E14)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="35" t="str">
+        <f t="shared" ref="F25:AK25" si="4">IFERROR(IF(F14=0,"",IF(F14&lt;0,"",F14)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="U25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="V25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AK25" s="35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42" t="str">
+        <f>IFERROR(IF(E25/E4=0, "",E25/E4),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="42" t="str">
+        <f t="shared" ref="F26:AK26" si="5">IFERROR(IF(F25/F4=0, "",F25/F4),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AI26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AK26" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11468,21 +14201,21 @@
       <selection pane="bottomLeft" activeCell="E93" sqref="E93:E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="8.77734375" style="1"/>
     <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11523,7 +14256,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -11559,7 +14292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -11595,7 +14328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -11631,7 +14364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -11667,7 +14400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -11703,7 +14436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
@@ -11739,7 +14472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
@@ -11775,7 +14508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>180</v>
       </c>
@@ -11811,7 +14544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -11847,7 +14580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>180</v>
       </c>
@@ -11883,7 +14616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>180</v>
       </c>
@@ -11919,7 +14652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
@@ -11955,7 +14688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>180</v>
       </c>
@@ -11991,7 +14724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
@@ -12027,7 +14760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>180</v>
       </c>
@@ -12063,7 +14796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -12099,7 +14832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>180</v>
       </c>
@@ -12135,7 +14868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>180</v>
       </c>
@@ -12171,7 +14904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>180</v>
       </c>
@@ -12207,7 +14940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>180</v>
       </c>
@@ -12243,7 +14976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>180</v>
       </c>
@@ -12279,7 +15012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>180</v>
       </c>
@@ -12315,7 +15048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>180</v>
       </c>
@@ -12351,7 +15084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
@@ -12387,7 +15120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>180</v>
       </c>
@@ -12423,7 +15156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>180</v>
       </c>
@@ -12459,7 +15192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
@@ -12495,7 +15228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>180</v>
       </c>
@@ -12531,7 +15264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>180</v>
       </c>
@@ -12567,7 +15300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>180</v>
       </c>
@@ -12603,7 +15336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>180</v>
       </c>
@@ -12639,7 +15372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>180</v>
       </c>
@@ -12675,7 +15408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>180</v>
       </c>
@@ -12711,7 +15444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>180</v>
       </c>
@@ -12747,7 +15480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>180</v>
       </c>
@@ -12783,7 +15516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>180</v>
       </c>
@@ -12819,7 +15552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>180</v>
       </c>
@@ -12855,7 +15588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>180</v>
       </c>
@@ -12891,7 +15624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
@@ -12927,7 +15660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>180</v>
       </c>
@@ -12963,7 +15696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>180</v>
       </c>
@@ -12999,7 +15732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>180</v>
       </c>
@@ -13035,7 +15768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>180</v>
       </c>
@@ -13071,7 +15804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>180</v>
       </c>
@@ -13107,7 +15840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>180</v>
       </c>
@@ -13143,7 +15876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>180</v>
       </c>
@@ -13179,7 +15912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>180</v>
       </c>
@@ -13215,7 +15948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>180</v>
       </c>
@@ -13251,7 +15984,7 @@
         <v>99.622</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
@@ -13287,7 +16020,7 @@
         <v>99.593000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>180</v>
       </c>
@@ -13323,7 +16056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>180</v>
       </c>
@@ -13359,7 +16092,7 @@
         <v>99.543999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>180</v>
       </c>
@@ -13395,7 +16128,7 @@
         <v>99.522999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>180</v>
       </c>
@@ -13431,7 +16164,7 @@
         <v>99.503</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>180</v>
       </c>
@@ -13467,7 +16200,7 @@
         <v>99.481999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>180</v>
       </c>
@@ -13503,7 +16236,7 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>180</v>
       </c>
@@ -13539,7 +16272,7 @@
         <v>99.75</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>180</v>
       </c>
@@ -13575,7 +16308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>180</v>
       </c>
@@ -13611,7 +16344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -13647,7 +16380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
@@ -13683,7 +16416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>180</v>
       </c>
@@ -13719,7 +16452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -13755,7 +16488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>180</v>
       </c>
@@ -13791,7 +16524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>180</v>
       </c>
@@ -13827,7 +16560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>180</v>
       </c>
@@ -13863,7 +16596,7 @@
         <v>99.622</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>180</v>
       </c>
@@ -13899,7 +16632,7 @@
         <v>99.593000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>180</v>
       </c>
@@ -13935,7 +16668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
@@ -13971,7 +16704,7 @@
         <v>99.543999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>180</v>
       </c>
@@ -14007,7 +16740,7 @@
         <v>99.52</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>180</v>
       </c>
@@ -14043,7 +16776,7 @@
         <v>99.503</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>180</v>
       </c>
@@ -14079,7 +16812,7 @@
         <v>99.481999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>180</v>
       </c>
@@ -14115,7 +16848,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>180</v>
       </c>
@@ -14151,7 +16884,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>180</v>
       </c>
@@ -14187,7 +16920,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>180</v>
       </c>
@@ -14223,7 +16956,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>180</v>
       </c>
@@ -14259,7 +16992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>180</v>
       </c>
@@ -14295,7 +17028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>180</v>
       </c>
@@ -14331,7 +17064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>180</v>
       </c>
@@ -14367,7 +17100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>180</v>
       </c>
@@ -14403,7 +17136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
@@ -14439,7 +17172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
@@ -14475,7 +17208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>180</v>
       </c>
@@ -14511,7 +17244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>180</v>
       </c>
@@ -14547,7 +17280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>180</v>
       </c>
@@ -14583,7 +17316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>180</v>
       </c>
@@ -14619,7 +17352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>180</v>
       </c>
@@ -14655,7 +17388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>180</v>
       </c>
@@ -14691,7 +17424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>180</v>
       </c>
@@ -14727,7 +17460,7 @@
         <v>99.039000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -14763,7 +17496,7 @@
         <v>99.492000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>180</v>
       </c>
@@ -14799,7 +17532,7 @@
         <v>99.47</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -14835,7 +17568,7 @@
         <v>99.126999999999995</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>180</v>
       </c>
@@ -14871,7 +17604,7 @@
         <v>99.126999999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>180</v>
       </c>
@@ -14921,12 +17654,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14946,7 +17679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -14963,7 +17696,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -14980,7 +17713,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -14997,7 +17730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -15014,7 +17747,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -15031,7 +17764,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
@@ -15048,7 +17781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
@@ -15065,7 +17798,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>180</v>
       </c>
@@ -15082,7 +17815,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -15099,7 +17832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>180</v>
       </c>
@@ -15116,7 +17849,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>180</v>
       </c>
@@ -15133,7 +17866,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>180</v>
       </c>
@@ -15150,7 +17883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>180</v>
       </c>
@@ -15167,7 +17900,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
@@ -15184,7 +17917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>180</v>
       </c>
@@ -15201,7 +17934,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -15218,7 +17951,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>180</v>
       </c>
@@ -15248,17 +17981,17 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.83203125" style="1"/>
-    <col min="11" max="11" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15299,7 +18032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -15313,7 +18046,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -15348,7 +18081,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -15380,7 +18113,7 @@
         <v>4280000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -15412,7 +18145,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -15460,14 +18193,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.77734375" style="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -15499,7 +18232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>180</v>
       </c>
@@ -15513,7 +18246,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>180</v>
       </c>
@@ -15527,7 +18260,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -15554,16 +18287,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="6" width="8.77734375" style="1"/>
+    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15592,7 +18325,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -15606,7 +18339,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -15623,7 +18356,7 @@
         <v>150211</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -15640,7 +18373,7 @@
         <v>134686</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>180</v>
       </c>
@@ -15657,7 +18390,7 @@
         <v>46584</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>180</v>
       </c>
@@ -15674,7 +18407,7 @@
         <v>-273432</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>180</v>
       </c>
@@ -15699,7 +18432,7 @@
         <v>4.5929195295213693E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>180</v>
       </c>
@@ -15733,17 +18466,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -15769,7 +18502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -15792,7 +18525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -15815,7 +18548,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -15838,7 +18571,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>180</v>
       </c>
@@ -15861,7 +18594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>180</v>
       </c>
@@ -15884,7 +18617,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>180</v>
       </c>
@@ -15907,7 +18640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>180</v>
       </c>
@@ -15930,7 +18663,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>180</v>
       </c>
@@ -15953,7 +18686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>180</v>
       </c>
@@ -15976,7 +18709,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -15999,7 +18732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>180</v>
       </c>
@@ -16022,7 +18755,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>180</v>
       </c>
@@ -16045,7 +18778,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>180</v>
       </c>
@@ -16068,7 +18801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>180</v>
       </c>
@@ -16104,25 +18837,25 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.83203125" style="1"/>
-    <col min="16" max="16" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.77734375" style="1"/>
+    <col min="16" max="16" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16187,7 +18920,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -16250,7 +18983,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -16312,7 +19045,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
